--- a/Tables/Table1_DHFRkinetics.xlsx
+++ b/Tables/Table1_DHFRkinetics.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimreynol/Documents/Projects/DHFRTSEpi/DHFRTSSatMut/2021_AnalysiswTNN/DHTS_EpiAnalysis/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimreynol/Documents/Projects/DHFRTSEpi/DHFRTSSatMut/2021_AnalysiswTNN/dhfr-tyms-epistasis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306BB73-93AE-EB4D-BD26-A5F549E0B4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF66703-C1C3-F84F-87DE-DA917267EEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57520" yWindow="4180" windowWidth="27640" windowHeight="16340" xr2:uid="{3C75B9B6-7487-2945-B4A5-C560ADF88E59}"/>
+    <workbookView xWindow="1700" yWindow="660" windowWidth="20820" windowHeight="16500" xr2:uid="{3C75B9B6-7487-2945-B4A5-C560ADF88E59}"/>
   </bookViews>
   <sheets>
     <sheet name="kinetics_dhfr" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">kinetics_dhfr!$A$1:$E$16</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">kinetics_dhfr!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Mutant</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>Thompson et al. Elife 2020</t>
+  </si>
+  <si>
+    <t>E17V</t>
+  </si>
+  <si>
+    <t>I5K</t>
+  </si>
+  <si>
+    <t>V13H</t>
+  </si>
+  <si>
+    <t>M20Q</t>
+  </si>
+  <si>
+    <t>This work</t>
   </si>
 </sst>
 </file>
@@ -282,6 +297,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -310,7 +326,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -341,15 +356,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D7475A9-E3DB-9344-82BD-6E87F66FC759}" name="kinetics_dhfr" displayName="kinetics_dhfr" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:F16" xr:uid="{2D7475A9-E3DB-9344-82BD-6E87F66FC759}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D7475A9-E3DB-9344-82BD-6E87F66FC759}" name="kinetics_dhfr" displayName="kinetics_dhfr" ref="A1:F20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{2D7475A9-E3DB-9344-82BD-6E87F66FC759}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71BFD3F5-D7F4-9541-9268-EA4578021C53}" uniqueName="1" name="DHFR mutation" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{73866437-77CD-1C45-AF2E-887E47066BFA}" uniqueName="2" name="kcat" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{343383DB-166C-C84A-846D-116C5E3FC9BB}" uniqueName="3" name="Km" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0E5098CA-2240-E54C-8B7F-32CC257DEB65}" uniqueName="4" name="kcat_std" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6DF37569-5829-0247-808B-B70D04404661}" uniqueName="5" name="Km_std" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{84CC9F4F-4FC0-884D-AE0B-DFB7C36D403A}" uniqueName="6" name="Reference" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{71BFD3F5-D7F4-9541-9268-EA4578021C53}" uniqueName="1" name="DHFR mutation" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{73866437-77CD-1C45-AF2E-887E47066BFA}" uniqueName="2" name="kcat" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{343383DB-166C-C84A-846D-116C5E3FC9BB}" uniqueName="3" name="Km" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0E5098CA-2240-E54C-8B7F-32CC257DEB65}" uniqueName="4" name="kcat_std" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6DF37569-5829-0247-808B-B70D04404661}" uniqueName="5" name="Km_std" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{84CC9F4F-4FC0-884D-AE0B-DFB7C36D403A}" uniqueName="6" name="Reference" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A79AB2-C6CF-D745-93CC-A8704EA72593}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,6 +1001,86 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table1_DHFRkinetics.xlsx
+++ b/Tables/Table1_DHFRkinetics.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimreynol/Documents/Projects/DHFRTSEpi/DHFRTSSatMut/2021_AnalysiswTNN/dhfr-tyms-epistasis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF66703-C1C3-F84F-87DE-DA917267EEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0E657-C481-C74F-AC66-2292C80EB71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="660" windowWidth="20820" windowHeight="16500" xr2:uid="{3C75B9B6-7487-2945-B4A5-C560ADF88E59}"/>
+    <workbookView xWindow="36220" yWindow="10500" windowWidth="26980" windowHeight="16340" xr2:uid="{3C75B9B6-7487-2945-B4A5-C560ADF88E59}"/>
   </bookViews>
   <sheets>
     <sheet name="kinetics_dhfr" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">kinetics_dhfr!$A$1:$E$20</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">kinetics_dhfr!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,25 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
-  <si>
-    <t>Mutant</t>
-  </si>
-  <si>
-    <t>kcat (s-1)</t>
-  </si>
-  <si>
-    <t>Km (uM)</t>
-  </si>
-  <si>
-    <t>kcat std dev</t>
-  </si>
-  <si>
-    <t>Km std dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>WT</t>
   </si>
@@ -155,6 +136,90 @@
   </si>
   <si>
     <t>This work</t>
+  </si>
+  <si>
+    <t>I5F</t>
+  </si>
+  <si>
+    <t>M20I</t>
+  </si>
+  <si>
+    <t>P21L</t>
+  </si>
+  <si>
+    <t>A26T</t>
+  </si>
+  <si>
+    <t>D27E</t>
+  </si>
+  <si>
+    <t>L28R</t>
+  </si>
+  <si>
+    <t>W30G</t>
+  </si>
+  <si>
+    <t>W30R</t>
+  </si>
+  <si>
+    <t>I94L</t>
+  </si>
+  <si>
+    <t>R98P</t>
+  </si>
+  <si>
+    <t>F153S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer et al. MBE 2019 </t>
+  </si>
+  <si>
+    <t>V40A</t>
+  </si>
+  <si>
+    <t>I61V</t>
+  </si>
+  <si>
+    <t>V75H</t>
+  </si>
+  <si>
+    <t>V75I</t>
+  </si>
+  <si>
+    <t>I91V</t>
+  </si>
+  <si>
+    <t>L112V</t>
+  </si>
+  <si>
+    <t>W133F</t>
+  </si>
+  <si>
+    <t>I155T</t>
+  </si>
+  <si>
+    <t>I155L</t>
+  </si>
+  <si>
+    <t>I155A</t>
+  </si>
+  <si>
+    <t>I115V</t>
+  </si>
+  <si>
+    <t>I115A</t>
+  </si>
+  <si>
+    <t>V88I</t>
+  </si>
+  <si>
+    <t>A145T</t>
+  </si>
+  <si>
+    <t>DHFR position</t>
+  </si>
+  <si>
+    <t>Bershtein et al. PNAS 2012</t>
   </si>
 </sst>
 </file>
@@ -202,21 +267,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -230,7 +306,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -241,10 +321,16 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -255,10 +341,16 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -269,10 +361,16 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -283,10 +381,36 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -301,7 +425,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -312,10 +440,15 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -340,33 +473,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{C3E4676E-D8A9-A64A-9645-1C91A20622E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7" unboundColumnsRight="1">
-    <queryTableFields count="6">
-      <queryTableField id="1" name="DHFR" tableColumnId="1"/>
-      <queryTableField id="2" name="kcat" tableColumnId="2"/>
-      <queryTableField id="3" name="Km" tableColumnId="3"/>
-      <queryTableField id="4" name="kcat_std" tableColumnId="4"/>
-      <queryTableField id="5" name="Km_std" tableColumnId="5"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D7475A9-E3DB-9344-82BD-6E87F66FC759}" name="kinetics_dhfr" displayName="kinetics_dhfr" ref="A1:F20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F20" xr:uid="{2D7475A9-E3DB-9344-82BD-6E87F66FC759}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71BFD3F5-D7F4-9541-9268-EA4578021C53}" uniqueName="1" name="DHFR mutation" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{73866437-77CD-1C45-AF2E-887E47066BFA}" uniqueName="2" name="kcat" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{343383DB-166C-C84A-846D-116C5E3FC9BB}" uniqueName="3" name="Km" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0E5098CA-2240-E54C-8B7F-32CC257DEB65}" uniqueName="4" name="kcat_std" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{6DF37569-5829-0247-808B-B70D04404661}" uniqueName="5" name="Km_std" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{84CC9F4F-4FC0-884D-AE0B-DFB7C36D403A}" uniqueName="6" name="Reference" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B154078F-2132-DF45-8B57-ED40E9880731}" name="Table1" displayName="Table1" ref="A1:G45" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G45" xr:uid="{B154078F-2132-DF45-8B57-ED40E9880731}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F501015F-021F-0640-8105-ADB2582EA416}" name="DHFR mutation" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E1FA3F32-3B24-EB4E-B5F2-F7A5C528A5ED}" name="DHFR position" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B0302F88-BE7B-DF40-A019-4656AA518D15}" name="kcat" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{032D02D3-1D0D-ED45-8213-08DC2D9A3E93}" name="Km" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5E6B4CF6-80A4-EE43-B98E-B77469FFE8AD}" name="kcat_std" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{26211B0C-3B31-9449-BAF0-78F70443F827}" name="Km_std" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{24B51098-CCB1-D444-A22E-04DA99267340}" name="Reference" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -667,420 +786,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A79AB2-C6CF-D745-93CC-A8704EA72593}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7.69</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.08</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C9" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="D9" s="4">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.65</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="4">
+        <v>330</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14.31</v>
+      </c>
+      <c r="D12" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8.18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.49</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.97</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.65</v>
+      </c>
+      <c r="D18" s="4">
+        <v>108</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4">
+        <v>20.61</v>
+      </c>
+      <c r="D19" s="4">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>31.120999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>31.54</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="D21" s="4">
+        <v>168.3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F21" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4">
+        <v>24.05</v>
+      </c>
+      <c r="D22" s="4">
+        <f>#REF!/3.22</f>
+        <v>7.4689440993788816</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4">
+        <v>79.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42.121000000000002</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>71.8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="F24" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.88</v>
+      </c>
+      <c r="D25" s="4">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="D27" s="4">
+        <f>#REF!/3.7</f>
+        <v>2.4297297297297296</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
+        <v>75</v>
+      </c>
+      <c r="C28" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="D28" s="4">
+        <f>#REF!/4.57</f>
+        <v>3.3916849015317285</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4">
+        <v>18.25</v>
+      </c>
+      <c r="D29" s="4">
+        <f>#REF!/5.51</f>
+        <v>3.3121597096188751</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="D30" s="4">
+        <f>#REF!/3.12</f>
+        <v>4.4230769230769234</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4">
+        <v>17.87</v>
+      </c>
+      <c r="D31" s="4">
+        <f>#REF!/5.13</f>
+        <v>3.4834307992202733</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <v>94</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7.71</v>
+      </c>
+      <c r="D32" s="4">
+        <v>14.87</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="D33" s="4">
+        <v>34.93</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3">
+        <v>112</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11.45</v>
+      </c>
+      <c r="D34" s="4">
+        <f>#REF!/2.34</f>
+        <v>4.8931623931623935</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3">
+        <v>113</v>
+      </c>
+      <c r="C35" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3">
+        <v>115</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10.26</v>
+      </c>
+      <c r="D36" s="4">
+        <f>#REF!/2.08</f>
+        <v>4.9326923076923075</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="D37" s="4">
+        <f>#REF!/0.5</f>
+        <v>15.18</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>121</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3">
+        <v>133</v>
+      </c>
+      <c r="C39" s="4">
+        <v>13.45</v>
+      </c>
+      <c r="D39" s="5">
+        <f>#REF!/6.79</f>
+        <v>1.9808541973490426</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3">
+        <v>145</v>
+      </c>
+      <c r="C40" s="5">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5">
+        <f>#REF!/3.6</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4">
+        <v>5.62</v>
+      </c>
+      <c r="D41" s="4">
+        <v>11.32</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3">
+        <v>155</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="D42" s="4">
+        <f>#REF!/2.72</f>
+        <v>4.1433823529411757</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="3">
+        <v>155</v>
+      </c>
+      <c r="C43" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="D43" s="4">
+        <f>#REF!/5.12</f>
+        <v>2.51953125</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3">
+        <v>155</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="D44" s="4">
+        <f>#REF!/2.71</f>
+        <v>4.4095940959409594</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
         <v>7.95</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D45" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E45" s="4">
         <v>0.38</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F45" s="4">
         <v>0.2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>79.2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.88</v>
-      </c>
-      <c r="C4" s="1">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.89</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8.65</v>
-      </c>
-      <c r="C6" s="1">
-        <v>108</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="C8" s="1">
-        <v>168.3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>21.4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>71.8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>90.6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="1">
-        <v>330</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E11" s="1">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>32.9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21.4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20.61</v>
-      </c>
-      <c r="C15" s="1">
-        <v>80</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1088,47 +1801,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B14F8-B56B-714D-ADA4-CA860B0D9059}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
